--- a/xlsx/市场营销_intext.xlsx
+++ b/xlsx/市场营销_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="470">
   <si>
     <t>市场营销</t>
   </si>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E9%81%93%E5%BE%B7</t>
   </si>
   <si>
-    <t>行銷道德</t>
+    <t>行销道德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E8%AA%BF%E6%9F%A5</t>
   </si>
   <si>
-    <t>市場調查</t>
+    <t>市场调查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%9C%BA%E5%88%92%E5%88%86</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>廣告</t>
+    <t>广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E7%89%8C</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%83%E9%8A%B7%E6%B4%BB%E5%8B%95</t>
   </si>
   <si>
-    <t>促銷活動</t>
+    <t>促销活动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E9%8A%B7%E5%93%A1</t>
   </si>
   <si>
-    <t>推銷員</t>
+    <t>推销员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%95%88%E8%90%A5%E9%94%80</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%AE%E5%85%A5%E6%80%A7%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>置入性行銷</t>
+    <t>置入性行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%88%B7</t>
@@ -167,31 +167,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E6%99%82%E9%BB%9E%E6%83%85%E5%A0%B1%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>銷售時點情報系統</t>
+    <t>销售时点情报系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%88%E5%93%81</t>
   </si>
   <si>
-    <t>贈品</t>
+    <t>赠品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E4%BD%8D%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>數位行銷</t>
+    <t>数位行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>廣告遊戲</t>
+    <t>广告游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%BB%A3</t>
   </si>
   <si>
-    <t>推廣</t>
+    <t>推广</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E8%A8%80%E4%BA%BA</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>層壓式推銷</t>
+    <t>层压式推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92%E8%90%A5%E9%94%80</t>
@@ -383,9 +383,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BF%E5%91%8A</t>
   </si>
   <si>
-    <t>广告</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%89%E6%AC%A1%E7%A7%91%E6%8A%80%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
@@ -431,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E7%A4%BE%E6%9C%83%E8%B2%AC%E4%BB%BB</t>
   </si>
   <si>
-    <t>企業社會責任</t>
+    <t>企业社会责任</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%90%A5%E9%94%80</t>
@@ -521,13 +518,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>管理學</t>
+    <t>管理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%A5%E9%94%80%E8%AE%A1%E5%88%92</t>
@@ -539,13 +536,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B7%E5%94%AE%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>銷售工程</t>
+    <t>销售工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E4%BC%81%E5%8A%83</t>
   </si>
   <si>
-    <t>行銷企劃</t>
+    <t>行销企划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%A4%A7%E5%AD%A6</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E5%81%8F%E8%A6%8B</t>
   </si>
   <si>
-    <t>媒體偏見</t>
+    <t>媒体偏见</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Crowd_psychology</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Obfuscation</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%A8%81%E7%88%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>歐威爾主義</t>
+    <t>欧威尔主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Persuasion</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%93%8D%E7%B8%B1%E8%A1%93</t>
   </si>
   <si>
-    <t>心理操縱術</t>
+    <t>心理操纵术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8A%A8%E4%B8%BB%E4%B9%89</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>獨立媒體</t>
+    <t>独立媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%AF%E8%91%9B</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E4%B8%8D%E6%9C%8D%E5%BE%9E</t>
   </si>
   <si>
-    <t>公民不服從</t>
+    <t>公民不服从</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Culture_jamming</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E8%AD%B0</t>
   </si>
   <si>
-    <t>抗議</t>
+    <t>抗议</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Youth_activism</t>
@@ -731,25 +728,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%93%81%E8%99%9B%E5%81%BD%E6%A8%99%E7%A4%BA</t>
   </si>
   <si>
-    <t>商品虛偽標示</t>
+    <t>商品虚伪标示</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%9E%8B%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>資訊型廣告</t>
+    <t>资讯型广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>行動行銷</t>
+    <t>行动行销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E5%82%B3%E6%A8%A1%E7%89%B9%E5%85%92</t>
   </si>
   <si>
-    <t>宣傳模特兒</t>
+    <t>宣传模特儿</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Radio_advertisement</t>
@@ -767,19 +764,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%91%8A%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>廣告標語</t>
+    <t>广告标语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E8%A8%80%E6%B3%95</t>
   </si>
   <si>
-    <t>證言法</t>
+    <t>证言法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>電視廣告</t>
+    <t>电视广告</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%A1%E6%9F%A5%E5%88%B6%E5%BA%A6</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E6%9B%B8</t>
   </si>
   <si>
-    <t>禁書</t>
+    <t>禁书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Broadcast_law</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%9A%E6%9B%B8%E5%9D%91%E5%84%92</t>
   </si>
   <si>
-    <t>焚書坑儒</t>
+    <t>焚书坑儒</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Cover-up</t>
@@ -863,25 +860,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%88%91%E5%AF%A9%E6%9F%A5</t>
   </si>
   <si>
-    <t>自我審查</t>
+    <t>自我审查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E4%BD%9C%E5%8A%87</t>
   </si>
   <si>
-    <t>惡作劇</t>
+    <t>恶作剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A6%E9%A1%9E%E4%BA%8B%E5%AF%A6</t>
   </si>
   <si>
-    <t>另類事實</t>
+    <t>另类事实</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9A%E4%BA%BA%E7%AF%80</t>
   </si>
   <si>
-    <t>愚人節</t>
+    <t>愚人节</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fakelore</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%BD%E9%80%A0%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>偽造文書</t>
+    <t>伪造文书</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gaslighting</t>
@@ -935,7 +932,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%82%B3%E8%AA%AA</t>
   </si>
   <si>
-    <t>都市傳說</t>
+    <t>都市传说</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virus_hoax</t>
@@ -947,7 +944,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7</t>
   </si>
   <si>
-    <t>行銷</t>
+    <t>行销</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Loyalty_marketing</t>
@@ -965,7 +962,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E5%A0%B4%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>市場研究</t>
+    <t>市场研究</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Word-of-mouth_marketing</t>
@@ -977,25 +974,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>新聞媒體</t>
+    <t>新闻媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%A1%8C%E8%A8%AD%E5%AE%9A</t>
   </si>
   <si>
-    <t>議題設定</t>
+    <t>议题设定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>新聞頻道</t>
+    <t>新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E9%A6%AC%E6%88%B2%E5%9C%98</t>
   </si>
   <si>
-    <t>媒體馬戲團</t>
+    <t>媒体马戏团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/24-hour_news_cycle</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E6%96%AF%E6%96%B0%E8%81%9E%E9%A0%BB%E9%81%93</t>
   </si>
   <si>
-    <t>福斯新聞頻道</t>
+    <t>福斯新闻频道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MSNBC</t>
@@ -1025,13 +1022,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%8A%AC%E7%99%BB%E9%83%B5%E5%A0%B1</t>
   </si>
   <si>
-    <t>哈芬登郵報</t>
+    <t>哈芬登邮报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>資訊娛樂</t>
+    <t>资讯娱乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Managing_the_news</t>
@@ -1049,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%AA%9E_(%E4%B8%80%E4%B9%9D%E5%85%AB%E5%9B%9B)</t>
   </si>
   <si>
-    <t>新語 (一九八四)</t>
+    <t>新语 (一九八四)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Media_event</t>
@@ -1079,13 +1076,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>政治運動</t>
+    <t>政治运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BB%A3%E5%91%8A</t>
   </si>
   <si>
-    <t>政治廣告</t>
+    <t>政治广告</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Astroturfing</t>
@@ -1109,13 +1106,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E6%9A%97%E6%AE%BA</t>
   </si>
   <si>
-    <t>人格暗殺</t>
+    <t>人格暗杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B%E6%94%BB%E5%8B%A2</t>
   </si>
   <si>
-    <t>魅力攻勢</t>
+    <t>魅力攻势</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%97%E5%93%A8%E6%94%BF%E6%B2%BB</t>
@@ -1175,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AE%A3%E5%82%B3</t>
   </si>
   <si>
-    <t>政治宣傳</t>
+    <t>政治宣传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%9E%E7%9C%BE%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>從眾效應</t>
+    <t>从众效应</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Crowd_manipulation</t>
@@ -1205,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%86%E6%9E%B6_(%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8)</t>
   </si>
   <si>
-    <t>框架 (社會科學)</t>
+    <t>框架 (社会科学)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Indoctrination</t>
@@ -1241,7 +1238,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E6%88%B0</t>
   </si>
   <si>
-    <t>心理戰</t>
+    <t>心理战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Airborne_leaflet_propaganda</t>
@@ -1259,13 +1256,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%94%E7%B8%B1%E9%9A%8A</t>
   </si>
   <si>
-    <t>第五縱隊</t>
+    <t>第五纵队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>資訊戰</t>
+    <t>资讯战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Lawfare</t>
@@ -1295,7 +1292,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%9B%E8%A6%86</t>
   </si>
   <si>
-    <t>顛覆</t>
+    <t>颠复</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E5%85%B3%E7%B3%BB</t>
@@ -1307,13 +1304,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E5%B4%87%E6%8B%9C</t>
   </si>
   <si>
-    <t>個人崇拜</t>
+    <t>个人崇拜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E8%A8%80%E5%B7%A7%E8%AA%9E</t>
   </si>
   <si>
-    <t>雙言巧語</t>
+    <t>双言巧语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Non-apology_apology</t>
@@ -1331,7 +1328,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>標語</t>
+    <t>标语</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sound_bite</t>
@@ -1343,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%8C%96%E5%A6%9D%E5%B8%AB</t>
   </si>
   <si>
-    <t>政治化妝師</t>
+    <t>政治化妆师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transfer_(propaganda)</t>
@@ -1403,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1421,13 +1418,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3625,7 +3622,7 @@
         <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -3651,10 +3648,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>122</v>
+      </c>
+      <c r="F65" t="s">
         <v>123</v>
-      </c>
-      <c r="F65" t="s">
-        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3680,10 +3677,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>124</v>
+      </c>
+      <c r="F66" t="s">
         <v>125</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3738,10 +3735,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3767,10 +3764,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3796,10 +3793,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3825,10 +3822,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F71" t="s">
         <v>133</v>
-      </c>
-      <c r="F71" t="s">
-        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3854,10 +3851,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72" t="s">
         <v>135</v>
-      </c>
-      <c r="F72" t="s">
-        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3883,10 +3880,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>136</v>
+      </c>
+      <c r="F73" t="s">
         <v>137</v>
-      </c>
-      <c r="F73" t="s">
-        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3912,10 +3909,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>138</v>
+      </c>
+      <c r="F74" t="s">
         <v>139</v>
-      </c>
-      <c r="F74" t="s">
-        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3941,10 +3938,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>140</v>
+      </c>
+      <c r="F75" t="s">
         <v>141</v>
-      </c>
-      <c r="F75" t="s">
-        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3999,10 +3996,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>142</v>
+      </c>
+      <c r="F77" t="s">
         <v>143</v>
-      </c>
-      <c r="F77" t="s">
-        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4028,10 +4025,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>144</v>
+      </c>
+      <c r="F78" t="s">
         <v>145</v>
-      </c>
-      <c r="F78" t="s">
-        <v>146</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -4057,10 +4054,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>146</v>
+      </c>
+      <c r="F79" t="s">
         <v>147</v>
-      </c>
-      <c r="F79" t="s">
-        <v>148</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -4115,10 +4112,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>148</v>
+      </c>
+      <c r="F81" t="s">
         <v>149</v>
-      </c>
-      <c r="F81" t="s">
-        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4144,10 +4141,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
         <v>151</v>
-      </c>
-      <c r="F82" t="s">
-        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4173,10 +4170,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" t="s">
         <v>153</v>
-      </c>
-      <c r="F83" t="s">
-        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4202,10 +4199,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>154</v>
+      </c>
+      <c r="F84" t="s">
         <v>155</v>
-      </c>
-      <c r="F84" t="s">
-        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4231,10 +4228,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>156</v>
+      </c>
+      <c r="F85" t="s">
         <v>157</v>
-      </c>
-      <c r="F85" t="s">
-        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4260,10 +4257,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" t="s">
         <v>159</v>
-      </c>
-      <c r="F86" t="s">
-        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4289,10 +4286,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>160</v>
+      </c>
+      <c r="F87" t="s">
         <v>161</v>
-      </c>
-      <c r="F87" t="s">
-        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4318,10 +4315,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" t="s">
         <v>163</v>
-      </c>
-      <c r="F88" t="s">
-        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4347,10 +4344,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>164</v>
+      </c>
+      <c r="F89" t="s">
         <v>165</v>
-      </c>
-      <c r="F89" t="s">
-        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4376,10 +4373,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>166</v>
+      </c>
+      <c r="F90" t="s">
         <v>167</v>
-      </c>
-      <c r="F90" t="s">
-        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4405,10 +4402,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>168</v>
+      </c>
+      <c r="F91" t="s">
         <v>169</v>
-      </c>
-      <c r="F91" t="s">
-        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4434,10 +4431,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" t="s">
         <v>171</v>
-      </c>
-      <c r="F92" t="s">
-        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4463,10 +4460,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" t="s">
         <v>173</v>
-      </c>
-      <c r="F93" t="s">
-        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4492,10 +4489,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>174</v>
+      </c>
+      <c r="F94" t="s">
         <v>175</v>
-      </c>
-      <c r="F94" t="s">
-        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4521,10 +4518,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>176</v>
+      </c>
+      <c r="F95" t="s">
         <v>177</v>
-      </c>
-      <c r="F95" t="s">
-        <v>178</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4550,10 +4547,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>178</v>
+      </c>
+      <c r="F96" t="s">
         <v>179</v>
-      </c>
-      <c r="F96" t="s">
-        <v>180</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4579,10 +4576,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" t="s">
         <v>181</v>
-      </c>
-      <c r="F97" t="s">
-        <v>182</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4608,10 +4605,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>182</v>
+      </c>
+      <c r="F98" t="s">
         <v>183</v>
-      </c>
-      <c r="F98" t="s">
-        <v>184</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4637,10 +4634,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" t="s">
         <v>185</v>
-      </c>
-      <c r="F99" t="s">
-        <v>186</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4666,10 +4663,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>186</v>
+      </c>
+      <c r="F100" t="s">
         <v>187</v>
-      </c>
-      <c r="F100" t="s">
-        <v>188</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -4695,10 +4692,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>188</v>
+      </c>
+      <c r="F101" t="s">
         <v>189</v>
-      </c>
-      <c r="F101" t="s">
-        <v>190</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4724,10 +4721,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" t="s">
         <v>191</v>
-      </c>
-      <c r="F102" t="s">
-        <v>192</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4753,10 +4750,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" t="s">
         <v>193</v>
-      </c>
-      <c r="F103" t="s">
-        <v>194</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4782,10 +4779,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
         <v>195</v>
-      </c>
-      <c r="F104" t="s">
-        <v>196</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4811,10 +4808,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>196</v>
+      </c>
+      <c r="F105" t="s">
         <v>197</v>
-      </c>
-      <c r="F105" t="s">
-        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4840,10 +4837,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>198</v>
+      </c>
+      <c r="F106" t="s">
         <v>199</v>
-      </c>
-      <c r="F106" t="s">
-        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -4869,10 +4866,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>200</v>
+      </c>
+      <c r="F107" t="s">
         <v>201</v>
-      </c>
-      <c r="F107" t="s">
-        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4898,10 +4895,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>202</v>
+      </c>
+      <c r="F108" t="s">
         <v>203</v>
-      </c>
-      <c r="F108" t="s">
-        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4927,10 +4924,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>204</v>
+      </c>
+      <c r="F109" t="s">
         <v>205</v>
-      </c>
-      <c r="F109" t="s">
-        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4956,10 +4953,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>206</v>
+      </c>
+      <c r="F110" t="s">
         <v>207</v>
-      </c>
-      <c r="F110" t="s">
-        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4985,10 +4982,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>208</v>
+      </c>
+      <c r="F111" t="s">
         <v>209</v>
-      </c>
-      <c r="F111" t="s">
-        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5014,10 +5011,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" t="s">
         <v>211</v>
-      </c>
-      <c r="F112" t="s">
-        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5043,10 +5040,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>212</v>
+      </c>
+      <c r="F113" t="s">
         <v>213</v>
-      </c>
-      <c r="F113" t="s">
-        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5072,10 +5069,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>214</v>
+      </c>
+      <c r="F114" t="s">
         <v>215</v>
-      </c>
-      <c r="F114" t="s">
-        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -5101,10 +5098,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>216</v>
+      </c>
+      <c r="F115" t="s">
         <v>217</v>
-      </c>
-      <c r="F115" t="s">
-        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5130,10 +5127,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>218</v>
+      </c>
+      <c r="F116" t="s">
         <v>219</v>
-      </c>
-      <c r="F116" t="s">
-        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -5159,10 +5156,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>220</v>
+      </c>
+      <c r="F117" t="s">
         <v>221</v>
-      </c>
-      <c r="F117" t="s">
-        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5188,10 +5185,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>222</v>
+      </c>
+      <c r="F118" t="s">
         <v>223</v>
-      </c>
-      <c r="F118" t="s">
-        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -5217,10 +5214,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>224</v>
+      </c>
+      <c r="F119" t="s">
         <v>225</v>
-      </c>
-      <c r="F119" t="s">
-        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5246,10 +5243,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>226</v>
+      </c>
+      <c r="F120" t="s">
         <v>227</v>
-      </c>
-      <c r="F120" t="s">
-        <v>228</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5275,10 +5272,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>228</v>
+      </c>
+      <c r="F121" t="s">
         <v>229</v>
-      </c>
-      <c r="F121" t="s">
-        <v>230</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5304,10 +5301,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>230</v>
+      </c>
+      <c r="F122" t="s">
         <v>231</v>
-      </c>
-      <c r="F122" t="s">
-        <v>232</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5333,10 +5330,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>232</v>
+      </c>
+      <c r="F123" t="s">
         <v>233</v>
-      </c>
-      <c r="F123" t="s">
-        <v>234</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5362,10 +5359,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>234</v>
+      </c>
+      <c r="F124" t="s">
         <v>235</v>
-      </c>
-      <c r="F124" t="s">
-        <v>236</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5391,10 +5388,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F125" t="s">
         <v>237</v>
-      </c>
-      <c r="F125" t="s">
-        <v>238</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5420,10 +5417,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>238</v>
+      </c>
+      <c r="F126" t="s">
         <v>239</v>
-      </c>
-      <c r="F126" t="s">
-        <v>240</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5449,10 +5446,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F127" t="s">
         <v>241</v>
-      </c>
-      <c r="F127" t="s">
-        <v>242</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5478,10 +5475,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>242</v>
+      </c>
+      <c r="F128" t="s">
         <v>243</v>
-      </c>
-      <c r="F128" t="s">
-        <v>244</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5507,10 +5504,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>244</v>
+      </c>
+      <c r="F129" t="s">
         <v>245</v>
-      </c>
-      <c r="F129" t="s">
-        <v>246</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5536,10 +5533,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>246</v>
+      </c>
+      <c r="F130" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" t="s">
-        <v>248</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5565,10 +5562,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>248</v>
+      </c>
+      <c r="F131" t="s">
         <v>249</v>
-      </c>
-      <c r="F131" t="s">
-        <v>250</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5594,10 +5591,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>250</v>
+      </c>
+      <c r="F132" t="s">
         <v>251</v>
-      </c>
-      <c r="F132" t="s">
-        <v>252</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5623,10 +5620,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>252</v>
+      </c>
+      <c r="F133" t="s">
         <v>253</v>
-      </c>
-      <c r="F133" t="s">
-        <v>254</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5652,10 +5649,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>254</v>
+      </c>
+      <c r="F134" t="s">
         <v>255</v>
-      </c>
-      <c r="F134" t="s">
-        <v>256</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5681,10 +5678,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="s">
         <v>257</v>
-      </c>
-      <c r="F135" t="s">
-        <v>258</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5710,10 +5707,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>258</v>
+      </c>
+      <c r="F136" t="s">
         <v>259</v>
-      </c>
-      <c r="F136" t="s">
-        <v>260</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5739,10 +5736,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>260</v>
+      </c>
+      <c r="F137" t="s">
         <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>262</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5768,10 +5765,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>262</v>
+      </c>
+      <c r="F138" t="s">
         <v>263</v>
-      </c>
-      <c r="F138" t="s">
-        <v>264</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5797,10 +5794,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5826,10 +5823,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>266</v>
+      </c>
+      <c r="F140" t="s">
         <v>267</v>
-      </c>
-      <c r="F140" t="s">
-        <v>268</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5855,10 +5852,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>268</v>
+      </c>
+      <c r="F141" t="s">
         <v>269</v>
-      </c>
-      <c r="F141" t="s">
-        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5884,10 +5881,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>270</v>
+      </c>
+      <c r="F142" t="s">
         <v>271</v>
-      </c>
-      <c r="F142" t="s">
-        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5913,10 +5910,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>272</v>
+      </c>
+      <c r="F143" t="s">
         <v>273</v>
-      </c>
-      <c r="F143" t="s">
-        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5942,10 +5939,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>274</v>
+      </c>
+      <c r="F144" t="s">
         <v>275</v>
-      </c>
-      <c r="F144" t="s">
-        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5971,10 +5968,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>276</v>
+      </c>
+      <c r="F145" t="s">
         <v>277</v>
-      </c>
-      <c r="F145" t="s">
-        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6000,10 +5997,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>278</v>
+      </c>
+      <c r="F146" t="s">
         <v>279</v>
-      </c>
-      <c r="F146" t="s">
-        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6029,10 +6026,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>280</v>
+      </c>
+      <c r="F147" t="s">
         <v>281</v>
-      </c>
-      <c r="F147" t="s">
-        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6058,10 +6055,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>282</v>
+      </c>
+      <c r="F148" t="s">
         <v>283</v>
-      </c>
-      <c r="F148" t="s">
-        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6087,10 +6084,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>284</v>
+      </c>
+      <c r="F149" t="s">
         <v>285</v>
-      </c>
-      <c r="F149" t="s">
-        <v>286</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6116,10 +6113,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>286</v>
+      </c>
+      <c r="F150" t="s">
         <v>287</v>
-      </c>
-      <c r="F150" t="s">
-        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6145,10 +6142,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>288</v>
+      </c>
+      <c r="F151" t="s">
         <v>289</v>
-      </c>
-      <c r="F151" t="s">
-        <v>290</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6174,10 +6171,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>290</v>
+      </c>
+      <c r="F152" t="s">
         <v>291</v>
-      </c>
-      <c r="F152" t="s">
-        <v>292</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6203,10 +6200,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>292</v>
+      </c>
+      <c r="F153" t="s">
         <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>294</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6232,10 +6229,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>294</v>
+      </c>
+      <c r="F154" t="s">
         <v>295</v>
-      </c>
-      <c r="F154" t="s">
-        <v>296</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6261,10 +6258,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>296</v>
+      </c>
+      <c r="F155" t="s">
         <v>297</v>
-      </c>
-      <c r="F155" t="s">
-        <v>298</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6290,10 +6287,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>298</v>
+      </c>
+      <c r="F156" t="s">
         <v>299</v>
-      </c>
-      <c r="F156" t="s">
-        <v>300</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6319,10 +6316,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>300</v>
+      </c>
+      <c r="F157" t="s">
         <v>301</v>
-      </c>
-      <c r="F157" t="s">
-        <v>302</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6348,10 +6345,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>302</v>
+      </c>
+      <c r="F158" t="s">
         <v>303</v>
-      </c>
-      <c r="F158" t="s">
-        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6377,10 +6374,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>304</v>
+      </c>
+      <c r="F159" t="s">
         <v>305</v>
-      </c>
-      <c r="F159" t="s">
-        <v>306</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6406,10 +6403,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6435,10 +6432,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>44</v>
@@ -6464,10 +6461,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>310</v>
+      </c>
+      <c r="F162" t="s">
         <v>311</v>
-      </c>
-      <c r="F162" t="s">
-        <v>312</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6493,10 +6490,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>312</v>
+      </c>
+      <c r="F163" t="s">
         <v>313</v>
-      </c>
-      <c r="F163" t="s">
-        <v>314</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6580,10 +6577,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" t="s">
         <v>315</v>
-      </c>
-      <c r="F166" t="s">
-        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6609,10 +6606,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>316</v>
+      </c>
+      <c r="F167" t="s">
         <v>317</v>
-      </c>
-      <c r="F167" t="s">
-        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6638,10 +6635,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>318</v>
+      </c>
+      <c r="F168" t="s">
         <v>319</v>
-      </c>
-      <c r="F168" t="s">
-        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6667,10 +6664,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>320</v>
+      </c>
+      <c r="F169" t="s">
         <v>321</v>
-      </c>
-      <c r="F169" t="s">
-        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6696,10 +6693,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>322</v>
+      </c>
+      <c r="F170" t="s">
         <v>323</v>
-      </c>
-      <c r="F170" t="s">
-        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6725,10 +6722,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>324</v>
+      </c>
+      <c r="F171" t="s">
         <v>325</v>
-      </c>
-      <c r="F171" t="s">
-        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6754,10 +6751,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>326</v>
+      </c>
+      <c r="F172" t="s">
         <v>327</v>
-      </c>
-      <c r="F172" t="s">
-        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6783,10 +6780,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>328</v>
+      </c>
+      <c r="F173" t="s">
         <v>329</v>
-      </c>
-      <c r="F173" t="s">
-        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6812,10 +6809,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>330</v>
+      </c>
+      <c r="F174" t="s">
         <v>331</v>
-      </c>
-      <c r="F174" t="s">
-        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6841,10 +6838,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>332</v>
+      </c>
+      <c r="F175" t="s">
         <v>333</v>
-      </c>
-      <c r="F175" t="s">
-        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6870,10 +6867,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>334</v>
+      </c>
+      <c r="F176" t="s">
         <v>335</v>
-      </c>
-      <c r="F176" t="s">
-        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6899,10 +6896,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>336</v>
+      </c>
+      <c r="F177" t="s">
         <v>337</v>
-      </c>
-      <c r="F177" t="s">
-        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6928,10 +6925,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>338</v>
+      </c>
+      <c r="F178" t="s">
         <v>339</v>
-      </c>
-      <c r="F178" t="s">
-        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6957,10 +6954,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>340</v>
+      </c>
+      <c r="F179" t="s">
         <v>341</v>
-      </c>
-      <c r="F179" t="s">
-        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6986,10 +6983,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F180" t="s">
         <v>343</v>
-      </c>
-      <c r="F180" t="s">
-        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7015,10 +7012,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7044,10 +7041,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7073,10 +7070,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7102,10 +7099,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7131,10 +7128,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7160,10 +7157,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7189,10 +7186,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7218,10 +7215,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7247,10 +7244,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7276,10 +7273,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7305,10 +7302,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7334,10 +7331,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7363,10 +7360,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7392,10 +7389,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7421,10 +7418,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7450,10 +7447,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>2</v>
@@ -7479,10 +7476,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7508,10 +7505,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7537,10 +7534,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" t="s">
         <v>381</v>
-      </c>
-      <c r="F199" t="s">
-        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7566,10 +7563,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>382</v>
+      </c>
+      <c r="F200" t="s">
         <v>383</v>
-      </c>
-      <c r="F200" t="s">
-        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7595,10 +7592,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>384</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
-      </c>
-      <c r="F201" t="s">
-        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7624,10 +7621,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>386</v>
+      </c>
+      <c r="F202" t="s">
         <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7653,10 +7650,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>388</v>
+      </c>
+      <c r="F203" t="s">
         <v>389</v>
-      </c>
-      <c r="F203" t="s">
-        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7682,10 +7679,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>390</v>
+      </c>
+      <c r="F204" t="s">
         <v>391</v>
-      </c>
-      <c r="F204" t="s">
-        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7711,10 +7708,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>392</v>
+      </c>
+      <c r="F205" t="s">
         <v>393</v>
-      </c>
-      <c r="F205" t="s">
-        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7740,10 +7737,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
         <v>395</v>
-      </c>
-      <c r="F206" t="s">
-        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7769,10 +7766,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
         <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7798,10 +7795,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
         <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7827,10 +7824,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
         <v>401</v>
-      </c>
-      <c r="F209" t="s">
-        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -7856,10 +7853,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>402</v>
+      </c>
+      <c r="F210" t="s">
         <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7885,10 +7882,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7914,10 +7911,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7943,10 +7940,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7972,10 +7969,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8001,10 +7998,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8030,10 +8027,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8059,10 +8056,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -8088,10 +8085,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
         <v>419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8117,10 +8114,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>420</v>
+      </c>
+      <c r="F219" t="s">
         <v>421</v>
-      </c>
-      <c r="F219" t="s">
-        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8146,10 +8143,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
         <v>423</v>
-      </c>
-      <c r="F220" t="s">
-        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -8175,10 +8172,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>424</v>
+      </c>
+      <c r="F221" t="s">
         <v>425</v>
-      </c>
-      <c r="F221" t="s">
-        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8204,10 +8201,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" t="s">
         <v>427</v>
-      </c>
-      <c r="F222" t="s">
-        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>2</v>
@@ -8233,10 +8230,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>428</v>
+      </c>
+      <c r="F223" t="s">
         <v>429</v>
-      </c>
-      <c r="F223" t="s">
-        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8262,10 +8259,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>430</v>
+      </c>
+      <c r="F224" t="s">
         <v>431</v>
-      </c>
-      <c r="F224" t="s">
-        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8291,10 +8288,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>432</v>
+      </c>
+      <c r="F225" t="s">
         <v>433</v>
-      </c>
-      <c r="F225" t="s">
-        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8320,10 +8317,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>434</v>
+      </c>
+      <c r="F226" t="s">
         <v>435</v>
-      </c>
-      <c r="F226" t="s">
-        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8349,10 +8346,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>436</v>
+      </c>
+      <c r="F227" t="s">
         <v>437</v>
-      </c>
-      <c r="F227" t="s">
-        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -8378,10 +8375,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>438</v>
+      </c>
+      <c r="F228" t="s">
         <v>439</v>
-      </c>
-      <c r="F228" t="s">
-        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -8407,10 +8404,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>440</v>
+      </c>
+      <c r="F229" t="s">
         <v>441</v>
-      </c>
-      <c r="F229" t="s">
-        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8436,10 +8433,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
         <v>443</v>
-      </c>
-      <c r="F230" t="s">
-        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8465,10 +8462,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>444</v>
+      </c>
+      <c r="F231" t="s">
         <v>445</v>
-      </c>
-      <c r="F231" t="s">
-        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>2</v>
@@ -8494,10 +8491,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>446</v>
+      </c>
+      <c r="F232" t="s">
         <v>447</v>
-      </c>
-      <c r="F232" t="s">
-        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>2</v>
@@ -8523,10 +8520,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>448</v>
+      </c>
+      <c r="F233" t="s">
         <v>449</v>
-      </c>
-      <c r="F233" t="s">
-        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>8</v>
@@ -8552,10 +8549,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>450</v>
+      </c>
+      <c r="F234" t="s">
         <v>451</v>
-      </c>
-      <c r="F234" t="s">
-        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8581,10 +8578,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>452</v>
+      </c>
+      <c r="F235" t="s">
         <v>453</v>
-      </c>
-      <c r="F235" t="s">
-        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8610,10 +8607,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>454</v>
+      </c>
+      <c r="F236" t="s">
         <v>455</v>
-      </c>
-      <c r="F236" t="s">
-        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -8668,10 +8665,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>456</v>
+      </c>
+      <c r="F238" t="s">
         <v>457</v>
-      </c>
-      <c r="F238" t="s">
-        <v>458</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8697,10 +8694,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>458</v>
+      </c>
+      <c r="F239" t="s">
         <v>459</v>
-      </c>
-      <c r="F239" t="s">
-        <v>460</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8755,10 +8752,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>460</v>
+      </c>
+      <c r="F241" t="s">
         <v>461</v>
-      </c>
-      <c r="F241" t="s">
-        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>3</v>
@@ -8784,10 +8781,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>462</v>
+      </c>
+      <c r="F242" t="s">
         <v>463</v>
-      </c>
-      <c r="F242" t="s">
-        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8813,10 +8810,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>464</v>
+      </c>
+      <c r="F243" t="s">
         <v>465</v>
-      </c>
-      <c r="F243" t="s">
-        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8842,10 +8839,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>466</v>
+      </c>
+      <c r="F244" t="s">
         <v>467</v>
-      </c>
-      <c r="F244" t="s">
-        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -8871,10 +8868,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>468</v>
+      </c>
+      <c r="F245" t="s">
         <v>469</v>
-      </c>
-      <c r="F245" t="s">
-        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>

--- a/xlsx/市场营销_intext.xlsx
+++ b/xlsx/市场营销_intext.xlsx
@@ -29,7 +29,7 @@
     <t>产品</t>
   </si>
   <si>
-    <t>政策_政策_管理_市场营销</t>
+    <t>体育运动_体育运动_竞争_市场营销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9A%E4%BB%B7%E7%AD%96%E7%95%A5</t>
